--- a/03_analyses/results_exp.xlsx
+++ b/03_analyses/results_exp.xlsx
@@ -424,37 +424,37 @@
         </is>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>439/443</t>
+          <t>456/465</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0.028</t>
+          <t>-0.030</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.307</t>
+          <t>0.272</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0.091</t>
+          <t>-0.112</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>.930</t>
+          <t>.914</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>QE = 182.26, df = 13, p = &lt; .001
-F(2, 8) = 0.01, p = .986</t>
+          <t>QE = 165.38, df = 13, p = &lt; .001
+F(2, 8) = 0.10, p = .906</t>
         </is>
       </c>
     </row>
@@ -468,31 +468,31 @@
         </is>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>687/654</t>
+          <t>670/632</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0.044</t>
+          <t xml:space="preserve"> 0.150</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.318</t>
+          <t>0.346</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0.139</t>
+          <t xml:space="preserve"> 0.433</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>.893</t>
+          <t>.676</t>
         </is>
       </c>
     </row>
